--- a/biology/Botanique/Cupressaceae/Cupressaceae.xlsx
+++ b/biology/Botanique/Cupressaceae/Cupressaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Cupressaceae (Cupressacées, aussi nommées Cupressinées) regroupe des plantes gymnospermes spermatophytes. Elle correspond à la plus grande famille de conifères, qui sont résineux et qui possèdent des feuilles résistantes[1]. Le contenu de cette famille a beaucoup changé entre la classification classique et la classification phylogénétique. La famille, qui inclut les cyprès, est référencée parmi les émetteurs de pollens allergisants selon le Réseau National de Surveillance Aérobiologique[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Cupressaceae (Cupressacées, aussi nommées Cupressinées) regroupe des plantes gymnospermes spermatophytes. Elle correspond à la plus grande famille de conifères, qui sont résineux et qui possèdent des feuilles résistantes. Le contenu de cette famille a beaucoup changé entre la classification classique et la classification phylogénétique. La famille, qui inclut les cyprès, est référencée parmi les émetteurs de pollens allergisants selon le Réseau National de Surveillance Aérobiologique.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Cupressus, nom latin d'un cyprès, du grec, κυπάρισσος / kuparissos, probablement dérivé d'une langue méditerranéenne inconnue. Il s'agissait d'un arbre sacré pour le dieu Pluton, qui changea son garçon compagnon de deuil Cyparissos en cyprès, d'où son abondance dans les cimetières méditerranéens[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Cupressus, nom latin d'un cyprès, du grec, κυπάρισσος / kuparissos, probablement dérivé d'une langue méditerranéenne inconnue. Il s'agissait d'un arbre sacré pour le dieu Pluton, qui changea son garçon compagnon de deuil Cyparissos en cyprès, d'où son abondance dans les cimetières méditerranéens.
 </t>
         </is>
       </c>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Feuillage
-Il y a trois types de feuilles caractéristiques de conifères qui apparaissent à des stades différents de développement [4] : 
+          <t>Feuillage</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Il y a trois types de feuilles caractéristiques de conifères qui apparaissent à des stades différents de développement  : 
 le type cupressoïde : les feuilles sont opposées, squamiformes et les paires sont semblables entre elles.
 le type thuyoïde : les feuilles sont opposées, squamiformes les paires sont différentes entre elles  
 le type oxycedroïde : les feuilles sont aciculaires et pseudo-verticillées</t>
@@ -576,9 +595,11 @@
           <t>Distribution géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Cupressaceae ont la particularité d’être très résistants au froid. On les retrouve dans une large distribution et notamment dans les deux hémisphères. Ils sont donc cosmopolites. Cette famille est particulièrement présente dans les hautes latitudes comme les forêts boréales et les toundras et dans des altitudes importantes tels que les montagnes[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Cupressaceae ont la particularité d’être très résistants au froid. On les retrouve dans une large distribution et notamment dans les deux hémisphères. Ils sont donc cosmopolites. Cette famille est particulièrement présente dans les hautes latitudes comme les forêts boréales et les toundras et dans des altitudes importantes tels que les montagnes.
 </t>
         </is>
       </c>
@@ -609,8 +630,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Classification classique
-En classification classique cette famille contenait[6]:
+          <t>Classification classique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique cette famille contenait:
 Actinostrobus Miq.
 Austrocedrus Florin &amp; Boutelje
 Callitris Vent. (syn. Frenela)
@@ -632,9 +658,44 @@
 Widdringtonia Endl.
 Xanthocyparis
 × Cupressocyparis Dallim. (genre hybride Chamaecyparis × Cupressus)
-Classification phylogénétique
-La classification phylogénétique inclut la famille des Taxodiaceae dans les Cupressaceae, sauf le genre Sciadopitys qui fait maintenant partie d'une famille distincte, les Sciadopityaceae[7].
-En classification phylogénétique elle compte 135 espèces réparties en 29 genres[7] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cupressaceae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cupressaceae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Classification phylogénétique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique inclut la famille des Taxodiaceae dans les Cupressaceae, sauf le genre Sciadopitys qui fait maintenant partie d'une famille distincte, les Sciadopityaceae.
+En classification phylogénétique elle compte 135 espèces réparties en 29 genres :
 Cunninghamioideae (Hayata) Quinn
 Cunninghamia R.Br.
 Taiwanioideae (Hayata) Quinn
